--- a/ArticleManage/main_working_folder/output_folders/Data 91 Surface Impregnation of Glycine/Data91_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 91 Surface Impregnation of Glycine/Data91_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC-Gly" sheetId="1" r:id="rId1"/>
-    <sheet name="AC-KG" sheetId="2" r:id="rId4"/>
-    <sheet name="AC-LiG" sheetId="3" r:id="rId5"/>
-    <sheet name="AC-NaG" sheetId="4" r:id="rId6"/>
-    <sheet name="RAC" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3_1 AC-Gly  0-1-60-360 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3_1 AC-KG  0-1-60-360 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3_1 AC-LiG  0-1-60-360 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3_1 AC-NaG  0-1-60-360 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3_1 RAC  0-1-60-360 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-Gly</a:t>
+              <a:t>Izoterma adsorpcji probki AC-Gly z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-Gly'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 AC-Gly  0-1-60-360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-Gly'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 AC-Gly  0-1-60-360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-KG</a:t>
+              <a:t>Izoterma adsorpcji probki AC-KG z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-KG'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 AC-KG  0-1-60-360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-KG'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 AC-KG  0-1-60-360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-LiG</a:t>
+              <a:t>Izoterma adsorpcji probki AC-LiG z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-LiG'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 AC-LiG  0-1-60-360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-LiG'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 AC-LiG  0-1-60-360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-NaG</a:t>
+              <a:t>Izoterma adsorpcji probki AC-NaG z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-NaG'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 AC-NaG  0-1-60-360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-NaG'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 AC-NaG  0-1-60-360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki RAC</a:t>
+              <a:t>Izoterma adsorpcji probki RAC z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RAC!$A$3:$A$50</c:f>
+              <c:f>'Figure 3_1 RAC  0-1-60-360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RAC!$B$3:$B$50</c:f>
+              <c:f>'Figure 3_1 RAC  0-1-60-360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 91 Surface Impregnation of Glycine/Data91_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 91 Surface Impregnation of Glycine/Data91_all_graphs_excel.xlsx
@@ -4927,7 +4927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,597 +4948,421 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.3</v>
+        <v>0.0805</v>
       </c>
       <c r="B3" s="0">
-        <v>312.8043</v>
+        <v>286.3708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.32</v>
+        <v>0.0735</v>
       </c>
       <c r="B4" s="0">
-        <v>312.7505</v>
+        <v>284.0209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.34</v>
+        <v>0.0673</v>
       </c>
       <c r="B5" s="0">
-        <v>313.1521</v>
+        <v>280.8877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.36</v>
+        <v>0.0593</v>
       </c>
       <c r="B6" s="0">
-        <v>313.8393</v>
+        <v>277.7546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.38</v>
+        <v>0.0522</v>
       </c>
       <c r="B7" s="0">
-        <v>314.6425</v>
+        <v>274.2298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4</v>
+        <v>0.046</v>
       </c>
       <c r="B8" s="0">
-        <v>315.3663</v>
+        <v>269.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.42</v>
+        <v>0.0425</v>
       </c>
       <c r="B9" s="0">
-        <v>315.8969</v>
+        <v>266.0052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.44</v>
+        <v>0.0389</v>
       </c>
       <c r="B10" s="0">
-        <v>316.3243</v>
+        <v>262.8721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.46</v>
+        <v>0.0327</v>
       </c>
       <c r="B11" s="0">
-        <v>316.6693</v>
+        <v>258.9556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.48</v>
+        <v>0.0292</v>
       </c>
       <c r="B12" s="0">
-        <v>316.9532</v>
+        <v>254.2559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5</v>
+        <v>0.0257</v>
       </c>
       <c r="B13" s="0">
-        <v>317.1967</v>
+        <v>251.5144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.52</v>
+        <v>0.0221</v>
       </c>
       <c r="B14" s="0">
-        <v>317.4476</v>
+        <v>247.5979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.54</v>
+        <v>0.0186</v>
       </c>
       <c r="B15" s="0">
-        <v>317.69</v>
+        <v>242.1149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.56</v>
+        <v>0.0159</v>
       </c>
       <c r="B16" s="0">
-        <v>317.9199</v>
+        <v>237.8068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.58</v>
+        <v>0.0142</v>
       </c>
       <c r="B17" s="0">
-        <v>318.1414</v>
+        <v>234.6736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6</v>
+        <v>0.0106</v>
       </c>
       <c r="B18" s="0">
-        <v>318.3591</v>
+        <v>229.9739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.62</v>
+        <v>0.0097</v>
       </c>
       <c r="B19" s="0">
-        <v>318.5879</v>
+        <v>227.2324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.64</v>
+        <v>0.0071</v>
       </c>
       <c r="B20" s="0">
-        <v>318.8418</v>
+        <v>222.5326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.66</v>
+        <v>0.0062</v>
       </c>
       <c r="B21" s="0">
-        <v>319.1451</v>
+        <v>217.0496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.68</v>
+        <v>0.0053</v>
       </c>
       <c r="B22" s="0">
-        <v>319.5216</v>
+        <v>211.1749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7</v>
+        <v>0.0035</v>
       </c>
       <c r="B23" s="0">
-        <v>319.9377</v>
+        <v>207.2585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.72</v>
+        <v>0.0009</v>
       </c>
       <c r="B24" s="0">
-        <v>320.3623</v>
+        <v>201.3838</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.74</v>
+        <v>0.0009</v>
       </c>
       <c r="B25" s="0">
-        <v>320.8198</v>
+        <v>196.2924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>321.2877</v>
+        <v>190.8094</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>321.7433</v>
+        <v>186.893</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8</v>
+        <v>-0.0009</v>
       </c>
       <c r="B28" s="0">
-        <v>322.164</v>
+        <v>181.4099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.82</v>
+        <v>-0.0027</v>
       </c>
       <c r="B29" s="0">
-        <v>322.6363</v>
+        <v>175.9269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8363</v>
+        <v>0.0885</v>
       </c>
       <c r="B30" s="0">
-        <v>321.6188</v>
+        <v>289.8956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8584</v>
+        <v>0.0982</v>
       </c>
       <c r="B31" s="0">
-        <v>322.0104</v>
+        <v>291.4621</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8805</v>
+        <v>0.1088</v>
       </c>
       <c r="B32" s="0">
-        <v>322.0104</v>
+        <v>294.2037</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9035</v>
+        <v>0.1336</v>
       </c>
       <c r="B33" s="0">
-        <v>322.7937</v>
+        <v>299.6867</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9274</v>
+        <v>0.1504</v>
       </c>
       <c r="B34" s="0">
-        <v>324.3603</v>
+        <v>302.4282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9522</v>
+        <v>0.1619</v>
       </c>
       <c r="B35" s="0">
-        <v>325.1436</v>
+        <v>303.9948</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.977</v>
+        <v>0.1858</v>
       </c>
       <c r="B36" s="0">
-        <v>327.1018</v>
+        <v>306.3446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9947</v>
+        <v>0.2212</v>
       </c>
       <c r="B37" s="0">
-        <v>330.6266</v>
+        <v>309.4778</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.2832</v>
+        <v>0.2593</v>
       </c>
       <c r="B38" s="0">
-        <v>312.611</v>
+        <v>311.436</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.2611</v>
+        <v>0.3106</v>
       </c>
       <c r="B39" s="0">
-        <v>312.2193</v>
+        <v>313.3943</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.2416</v>
+        <v>0.3531</v>
       </c>
       <c r="B40" s="0">
-        <v>310.2611</v>
+        <v>314.5692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.2212</v>
+        <v>0.4035</v>
       </c>
       <c r="B41" s="0">
-        <v>309.8695</v>
+        <v>316.1358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.2018</v>
+        <v>0.4558</v>
       </c>
       <c r="B42" s="0">
-        <v>307.9112</v>
+        <v>316.9191</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.1858</v>
+        <v>0.5062</v>
       </c>
       <c r="B43" s="0">
-        <v>307.1279</v>
+        <v>318.094</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.1646</v>
+        <v>0.5584</v>
       </c>
       <c r="B44" s="0">
-        <v>304.7781</v>
+        <v>318.8773</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.146</v>
+        <v>0.6088</v>
       </c>
       <c r="B45" s="0">
-        <v>300.8616</v>
+        <v>319.6606</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.1327</v>
+        <v>0.6602</v>
       </c>
       <c r="B46" s="0">
-        <v>298.9034</v>
+        <v>320.0522</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.1115</v>
+        <v>0.7115</v>
       </c>
       <c r="B47" s="0">
-        <v>294.5953</v>
+        <v>320.4439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0982</v>
+        <v>0.7602</v>
       </c>
       <c r="B48" s="0">
-        <v>291.4621</v>
+        <v>321.2272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.0894</v>
+        <v>0.8088</v>
       </c>
       <c r="B49" s="0">
-        <v>289.1123</v>
+        <v>321.6188</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.0805</v>
+        <v>0.8584</v>
       </c>
       <c r="B50" s="0">
-        <v>286.3708</v>
+        <v>322.4021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.0735</v>
+        <v>0.9053</v>
       </c>
       <c r="B51" s="0">
-        <v>284.0209</v>
+        <v>323.1854</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.0673</v>
+        <v>0.9549</v>
       </c>
       <c r="B52" s="0">
-        <v>280.8877</v>
+        <v>325.1436</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.0593</v>
+        <v>0.9779</v>
       </c>
       <c r="B53" s="0">
-        <v>277.7546</v>
+        <v>327.4935</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.0522</v>
+        <v>0.9965</v>
       </c>
       <c r="B54" s="0">
-        <v>274.2298</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.046</v>
-      </c>
-      <c r="B55" s="0">
-        <v>269.53</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0425</v>
-      </c>
-      <c r="B56" s="0">
-        <v>266.0052</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0389</v>
-      </c>
-      <c r="B57" s="0">
-        <v>262.8721</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0327</v>
-      </c>
-      <c r="B58" s="0">
-        <v>258.9556</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.0292</v>
-      </c>
-      <c r="B59" s="0">
-        <v>254.2559</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.0257</v>
-      </c>
-      <c r="B60" s="0">
-        <v>251.5144</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.0221</v>
-      </c>
-      <c r="B61" s="0">
-        <v>247.5979</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.0186</v>
-      </c>
-      <c r="B62" s="0">
-        <v>242.1149</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.0159</v>
-      </c>
-      <c r="B63" s="0">
-        <v>237.8068</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.0142</v>
-      </c>
-      <c r="B64" s="0">
-        <v>234.6736</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.0106</v>
-      </c>
-      <c r="B65" s="0">
-        <v>229.9739</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.0097</v>
-      </c>
-      <c r="B66" s="0">
-        <v>227.2324</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B67" s="0">
-        <v>222.5326</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.0062</v>
-      </c>
-      <c r="B68" s="0">
-        <v>217.0496</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.0053</v>
-      </c>
-      <c r="B69" s="0">
-        <v>211.1749</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0">
-        <v>0.0035</v>
-      </c>
-      <c r="B70" s="0">
-        <v>207.2585</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B71" s="0">
-        <v>201.3838</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B72" s="0">
-        <v>196.2924</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0">
-        <v>0</v>
-      </c>
-      <c r="B73" s="0">
-        <v>190.8094</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0">
-        <v>0</v>
-      </c>
-      <c r="B74" s="0">
-        <v>186.893</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B75" s="0">
-        <v>181.4099</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0">
-        <v>-0.0027</v>
-      </c>
-      <c r="B76" s="0">
-        <v>175.9269</v>
-      </c>
-    </row>
-    <row r="77"/>
+        <v>330.6266</v>
+      </c>
+    </row>
+    <row r="55"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5547,7 +5371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5568,98 +5392,98 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9973</v>
+        <v>0.9982</v>
       </c>
       <c r="B3" s="0">
-        <v>223.3159</v>
+        <v>220.1828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9726</v>
+        <v>0.9752</v>
       </c>
       <c r="B4" s="0">
-        <v>221.3577</v>
+        <v>218.6162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9513</v>
+        <v>0.9522</v>
       </c>
       <c r="B5" s="0">
-        <v>220.1828</v>
+        <v>217.8329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.908</v>
+        <v>0.9088</v>
       </c>
       <c r="B6" s="0">
-        <v>219.0078</v>
+        <v>215.8747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8619</v>
+        <v>0.8602</v>
       </c>
       <c r="B7" s="0">
-        <v>218.2245</v>
+        <v>215.483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.815</v>
+        <v>0.8115</v>
       </c>
       <c r="B8" s="0">
-        <v>218.2245</v>
+        <v>215.483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7611</v>
+        <v>0.7628</v>
       </c>
       <c r="B9" s="0">
-        <v>216.658</v>
+        <v>215.0914</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7106</v>
+        <v>0.7124</v>
       </c>
       <c r="B10" s="0">
-        <v>216.2663</v>
+        <v>214.3081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6584</v>
+        <v>0.6619</v>
       </c>
       <c r="B11" s="0">
-        <v>215.8747</v>
+        <v>213.9164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6106</v>
+        <v>0.6115</v>
       </c>
       <c r="B12" s="0">
-        <v>216.2663</v>
+        <v>213.9164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5575</v>
+        <v>0.5619</v>
       </c>
       <c r="B13" s="0">
-        <v>216.658</v>
+        <v>213.9164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5088</v>
+        <v>0.5115</v>
       </c>
       <c r="B14" s="0">
-        <v>215.483</v>
+        <v>213.5248</v>
       </c>
     </row>
     <row r="15">
@@ -5667,31 +5491,31 @@
         <v>0.4602</v>
       </c>
       <c r="B15" s="0">
-        <v>215.483</v>
+        <v>213.5248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.408</v>
+        <v>0.4097</v>
       </c>
       <c r="B16" s="0">
-        <v>215.483</v>
+        <v>213.1332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3602</v>
+        <v>0.3584</v>
       </c>
       <c r="B17" s="0">
-        <v>214.6997</v>
+        <v>212.7415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3097</v>
+        <v>0.3053</v>
       </c>
       <c r="B18" s="0">
-        <v>213.5248</v>
+        <v>212.3499</v>
       </c>
     </row>
     <row r="19">
@@ -5699,119 +5523,119 @@
         <v>0.2584</v>
       </c>
       <c r="B19" s="0">
-        <v>214.6997</v>
+        <v>211.5666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2248</v>
+        <v>0.2257</v>
       </c>
       <c r="B20" s="0">
-        <v>213.1332</v>
+        <v>211.1749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.192</v>
+        <v>0.1876</v>
       </c>
       <c r="B21" s="0">
-        <v>212.3499</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1699</v>
+        <v>0.1681</v>
       </c>
       <c r="B22" s="0">
-        <v>211.1749</v>
+        <v>208.4334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1504</v>
+        <v>0.1496</v>
       </c>
       <c r="B23" s="0">
-        <v>210</v>
+        <v>208.0418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1319</v>
+        <v>0.1327</v>
       </c>
       <c r="B24" s="0">
-        <v>209.2167</v>
+        <v>207.2585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1088</v>
+        <v>0.1106</v>
       </c>
       <c r="B25" s="0">
-        <v>206.8668</v>
+        <v>205.6919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0929</v>
+        <v>0.0903</v>
       </c>
       <c r="B26" s="0">
-        <v>202.9504</v>
+        <v>204.1253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0814</v>
+        <v>0.0717</v>
       </c>
       <c r="B27" s="0">
-        <v>200.6005</v>
+        <v>199.8172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0637</v>
+        <v>0.0575</v>
       </c>
       <c r="B28" s="0">
-        <v>199.0339</v>
+        <v>197.0757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0558</v>
+        <v>0.0469</v>
       </c>
       <c r="B29" s="0">
-        <v>195.5091</v>
+        <v>193.1593</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0434</v>
+        <v>0.0416</v>
       </c>
       <c r="B30" s="0">
-        <v>189.6345</v>
+        <v>191.201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0389</v>
+        <v>0.0327</v>
       </c>
       <c r="B31" s="0">
-        <v>185.3264</v>
+        <v>187.6762</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0301</v>
+        <v>0.0274</v>
       </c>
       <c r="B32" s="0">
-        <v>179.4517</v>
+        <v>183.7598</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0274</v>
+        <v>0.0212</v>
       </c>
       <c r="B33" s="0">
-        <v>172.0104</v>
+        <v>179.8433</v>
       </c>
     </row>
     <row r="34">
@@ -5819,18 +5643,34 @@
         <v>0.0177</v>
       </c>
       <c r="B34" s="0">
-        <v>165.3525</v>
+        <v>175.5352</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0177</v>
+        <v>0.0159</v>
       </c>
       <c r="B35" s="0">
-        <v>160.2611</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>171.6188</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0133</v>
+      </c>
+      <c r="B36" s="0">
+        <v>166.5274</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0115</v>
+      </c>
+      <c r="B37" s="0">
+        <v>161.0444</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5839,7 +5679,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5860,405 +5700,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0229</v>
+        <v>0.9611</v>
       </c>
       <c r="B3" s="0">
-        <v>214.8431</v>
+        <v>284.4125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.035</v>
+        <v>0.8796</v>
       </c>
       <c r="B4" s="0">
-        <v>227.646</v>
+        <v>281.671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0605</v>
+        <v>0.7832</v>
       </c>
       <c r="B5" s="0">
-        <v>241.3213</v>
+        <v>280.4961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.085</v>
+        <v>0.6823</v>
       </c>
       <c r="B6" s="0">
-        <v>250.6926</v>
+        <v>279.3211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1108</v>
+        <v>0.5779</v>
       </c>
       <c r="B7" s="0">
-        <v>257.3392</v>
+        <v>278.1462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1372</v>
+        <v>0.4735</v>
       </c>
       <c r="B8" s="0">
-        <v>262.4241</v>
+        <v>276.5796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1621</v>
+        <v>0.3708</v>
       </c>
       <c r="B9" s="0">
-        <v>264.1753</v>
+        <v>273.8381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1877</v>
+        <v>0.2876</v>
       </c>
       <c r="B10" s="0">
-        <v>267.0269</v>
+        <v>271.8799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2132</v>
+        <v>0.2133</v>
       </c>
       <c r="B11" s="0">
-        <v>268.2297</v>
+        <v>268.7467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2388</v>
+        <v>0.1496</v>
       </c>
       <c r="B12" s="0">
-        <v>269.967</v>
+        <v>263.6554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2644</v>
+        <v>0.1097</v>
       </c>
       <c r="B13" s="0">
-        <v>271.0355</v>
+        <v>257.389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2899</v>
+        <v>0.0796</v>
       </c>
       <c r="B14" s="0">
-        <v>271.8092</v>
+        <v>249.5561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3155</v>
+        <v>0.0593</v>
       </c>
       <c r="B15" s="0">
-        <v>272.6639</v>
+        <v>240.9399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3411</v>
+        <v>0.0442</v>
       </c>
       <c r="B16" s="0">
-        <v>273.3271</v>
+        <v>233.107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3669</v>
+        <v>0.0327</v>
       </c>
       <c r="B17" s="0">
-        <v>273.8672</v>
+        <v>224.0992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3922</v>
+        <v>0.023</v>
       </c>
       <c r="B18" s="0">
-        <v>274.4103</v>
+        <v>215.0914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4178</v>
+        <v>0.008</v>
       </c>
       <c r="B19" s="0">
-        <v>275.1619</v>
+        <v>186.893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4434</v>
+        <v>0.0035</v>
       </c>
       <c r="B20" s="0">
-        <v>275.5156</v>
+        <v>167.7023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.469</v>
+        <v>0.0018</v>
       </c>
       <c r="B21" s="0">
-        <v>276.024</v>
+        <v>146.9452</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4945</v>
+        <v>0.0018</v>
       </c>
       <c r="B22" s="0">
-        <v>276.4588</v>
+        <v>126.188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5201</v>
+        <v>0.0009</v>
       </c>
       <c r="B23" s="0">
-        <v>276.842</v>
+        <v>105.4308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5457</v>
+        <v>0</v>
       </c>
       <c r="B24" s="0">
-        <v>277.3504</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5717</v>
-      </c>
-      <c r="B25" s="0">
-        <v>277.6399</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5968</v>
-      </c>
-      <c r="B26" s="0">
-        <v>278.0136</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6224</v>
-      </c>
-      <c r="B27" s="0">
-        <v>278.2788</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.648</v>
-      </c>
-      <c r="B28" s="0">
-        <v>278.6547</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6741</v>
-      </c>
-      <c r="B29" s="0">
-        <v>278.8883</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6991</v>
-      </c>
-      <c r="B30" s="0">
-        <v>279.502</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7247</v>
-      </c>
-      <c r="B31" s="0">
-        <v>279.561</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7503</v>
-      </c>
-      <c r="B32" s="0">
-        <v>280.0031</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7759</v>
-      </c>
-      <c r="B33" s="0">
-        <v>280.3052</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8014</v>
-      </c>
-      <c r="B34" s="0">
-        <v>280.4231</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.827</v>
-      </c>
-      <c r="B35" s="0">
-        <v>280.9758</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8526</v>
-      </c>
-      <c r="B36" s="0">
-        <v>281.3516</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8782</v>
-      </c>
-      <c r="B37" s="0">
-        <v>281.6537</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9037</v>
-      </c>
-      <c r="B38" s="0">
-        <v>282.5232</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9293</v>
-      </c>
-      <c r="B39" s="0">
-        <v>283.3853</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9554</v>
-      </c>
-      <c r="B40" s="0">
-        <v>284.159</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9805</v>
-      </c>
-      <c r="B41" s="0">
-        <v>286.7675</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9972</v>
-      </c>
-      <c r="B42" s="0">
-        <v>289.1815</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0451</v>
-      </c>
-      <c r="B43" s="0">
-        <v>233.107</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0292</v>
-      </c>
-      <c r="B44" s="0">
-        <v>221.3577</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0177</v>
-      </c>
-      <c r="B45" s="0">
-        <v>205.6919</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0106</v>
-      </c>
-      <c r="B46" s="0">
-        <v>196.2924</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0062</v>
-      </c>
-      <c r="B47" s="0">
-        <v>186.893</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0027</v>
-      </c>
-      <c r="B48" s="0">
-        <v>166.5274</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B49" s="0">
-        <v>147.3368</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B50" s="0">
-        <v>126.188</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B51" s="0">
-        <v>105.4308</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0</v>
-      </c>
-      <c r="B52" s="0">
         <v>84.6736</v>
       </c>
     </row>
-    <row r="53"/>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6267,7 +5883,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6312,397 +5928,373 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9035</v>
+        <v>0.9022</v>
       </c>
       <c r="B6" s="0">
-        <v>224.0992</v>
+        <v>223.9034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8549</v>
+        <v>0.8535</v>
       </c>
       <c r="B7" s="0">
-        <v>222.9243</v>
+        <v>222.7285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8814</v>
+        <v>0.8058</v>
       </c>
       <c r="B8" s="0">
-        <v>224.0992</v>
+        <v>221.7493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9248</v>
+        <v>0.758</v>
       </c>
       <c r="B9" s="0">
-        <v>224.8825</v>
+        <v>220.7702</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.831</v>
+        <v>0.7088</v>
       </c>
       <c r="B10" s="0">
-        <v>221.3577</v>
+        <v>219.7911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8071</v>
+        <v>0.6597</v>
       </c>
       <c r="B11" s="0">
-        <v>221.7493</v>
+        <v>219.3995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7832</v>
+        <v>0.6097</v>
       </c>
       <c r="B12" s="0">
-        <v>221.3577</v>
+        <v>218.6162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7584</v>
+        <v>0.5597</v>
       </c>
       <c r="B13" s="0">
-        <v>220.9661</v>
+        <v>218.0287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7345</v>
+        <v>0.5097</v>
       </c>
       <c r="B14" s="0">
-        <v>220.5744</v>
+        <v>217.4413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7106</v>
+        <v>0.4593</v>
       </c>
       <c r="B15" s="0">
-        <v>219.3995</v>
+        <v>217.4413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6832</v>
+        <v>0.4088</v>
       </c>
       <c r="B16" s="0">
-        <v>219.0078</v>
+        <v>216.658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6584</v>
+        <v>0.3575</v>
       </c>
       <c r="B17" s="0">
-        <v>219.3995</v>
+        <v>216.0705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6345</v>
+        <v>0.3062</v>
       </c>
       <c r="B18" s="0">
-        <v>219.0078</v>
+        <v>215.2872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6124</v>
+        <v>0.2584</v>
       </c>
       <c r="B19" s="0">
-        <v>218.2245</v>
+        <v>214.6997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5823</v>
+        <v>0.2257</v>
       </c>
       <c r="B20" s="0">
-        <v>218.6162</v>
+        <v>213.9164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5584</v>
+        <v>0.1885</v>
       </c>
       <c r="B21" s="0">
-        <v>217.8329</v>
+        <v>212.7415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5354</v>
+        <v>0.1681</v>
       </c>
       <c r="B22" s="0">
-        <v>217.4413</v>
+        <v>212.154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5097</v>
+        <v>0.1509</v>
       </c>
       <c r="B23" s="0">
-        <v>217.0496</v>
+        <v>211.1749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4832</v>
+        <v>0.1332</v>
       </c>
       <c r="B24" s="0">
-        <v>217.0496</v>
+        <v>210.3916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4593</v>
+        <v>0.1124</v>
       </c>
       <c r="B25" s="0">
-        <v>217.4413</v>
+        <v>208.8251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4354</v>
+        <v>0.0867</v>
       </c>
       <c r="B26" s="0">
-        <v>217.4413</v>
+        <v>206.4752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4088</v>
+        <v>0.0743</v>
       </c>
       <c r="B27" s="0">
-        <v>217.4413</v>
+        <v>204.9086</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3796</v>
+        <v>0.0668</v>
       </c>
       <c r="B28" s="0">
-        <v>216.658</v>
+        <v>204.1253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.3558</v>
+        <v>0.0553</v>
       </c>
       <c r="B29" s="0">
-        <v>216.2663</v>
+        <v>201.7755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.3319</v>
+        <v>0.0451</v>
       </c>
       <c r="B30" s="0">
-        <v>215.8747</v>
+        <v>199.4256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.3071</v>
+        <v>0.0389</v>
       </c>
       <c r="B31" s="0">
-        <v>215.483</v>
+        <v>196.6841</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.2805</v>
+        <v>0.0336</v>
       </c>
       <c r="B32" s="0">
-        <v>215.0914</v>
+        <v>195.1175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.2584</v>
+        <v>0.0274</v>
       </c>
       <c r="B33" s="0">
-        <v>214.6997</v>
+        <v>191.201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.2257</v>
+        <v>0.023</v>
       </c>
       <c r="B34" s="0">
-        <v>213.9164</v>
+        <v>187.6762</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.1894</v>
+        <v>0.0177</v>
       </c>
       <c r="B35" s="0">
-        <v>213.1332</v>
+        <v>182.1932</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.1664</v>
+        <v>0.0142</v>
       </c>
       <c r="B36" s="0">
-        <v>212.7415</v>
+        <v>177.8851</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.1496</v>
+        <v>0.0115</v>
       </c>
       <c r="B37" s="0">
-        <v>211.9582</v>
+        <v>172.0104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.1336</v>
+        <v>0.0088</v>
       </c>
       <c r="B38" s="0">
-        <v>210.3916</v>
+        <v>166.9191</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.1133</v>
+        <v>0.0053</v>
       </c>
       <c r="B39" s="0">
-        <v>209.6084</v>
+        <v>161.8277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.0885</v>
+        <v>0.0035</v>
       </c>
       <c r="B40" s="0">
-        <v>207.2585</v>
+        <v>155.1697</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.0717</v>
+        <v>0.0018</v>
       </c>
       <c r="B41" s="0">
-        <v>204.9086</v>
+        <v>148.9034</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.0602</v>
+        <v>0.0009</v>
       </c>
       <c r="B42" s="0">
-        <v>203.342</v>
+        <v>142.6371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.0478</v>
+        <v>-0.0009</v>
       </c>
       <c r="B43" s="0">
-        <v>200.2089</v>
+        <v>135.5875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.0372</v>
+        <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>197.4674</v>
+        <v>128.1462</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.0265</v>
+        <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>192.7676</v>
+        <v>120.705</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.0221</v>
+        <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>190.0261</v>
+        <v>115.2219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.015</v>
+        <v>-0.0009</v>
       </c>
       <c r="B47" s="0">
-        <v>184.5431</v>
+        <v>107.389</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.0106</v>
+        <v>-0.0009</v>
       </c>
       <c r="B48" s="0">
-        <v>178.6684</v>
+        <v>99.5561</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>172.7937</v>
+        <v>92.8982</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.0053</v>
+        <v>0</v>
       </c>
       <c r="B50" s="0">
-        <v>167.7023</v>
+        <v>85.4569</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.0044</v>
+        <v>0.0027</v>
       </c>
       <c r="B51" s="0">
-        <v>163.0026</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B52" s="0">
-        <v>156.3446</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B53" s="0">
-        <v>150.47</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B54" s="0">
-        <v>142.2454</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>78.0157</v>
+      </c>
+    </row>
+    <row r="52"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 91 Surface Impregnation of Glycine/Data91_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 91 Surface Impregnation of Glycine/Data91_all_graphs_excel.xlsx
@@ -5,18 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 AC-ME1  0&amp;1&amp;0&amp;360 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 AC-MM1  0&amp;1&amp;0&amp;360 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 AC-MM2.5  0&amp;1&amp;-2&amp;10 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 AC-MM5  0&amp;1&amp;-2&amp;10 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 3 AC-MM7  0&amp;1&amp;-2&amp;10 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 3 AC-MW1  0&amp;1&amp;0&amp;360 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 3 RAC  0&amp;1&amp;0&amp;360 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 3_1 AC-Gly  0&amp;1&amp;60&amp;360 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 3_1 AC-KG  0&amp;1&amp;60&amp;360 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 3_1 AC-LiG  0&amp;1&amp;60&amp;360 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 3_1 AC-NaG  0&amp;1&amp;60&amp;360 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 3_1 RAC  0&amp;1&amp;60&amp;360 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 3_1 AC-Gly  0&amp;1&amp;60&amp;360 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3_1 AC-KG  0&amp;1&amp;60&amp;360 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3_1 AC-LiG  0&amp;1&amp;60&amp;360 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3_1 AC-NaG  0&amp;1&amp;60&amp;360 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3_1 RAC  0&amp;1&amp;60&amp;360 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 3_2 AC-ME1  0&amp;1&amp;0&amp;360 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 3_2 AC-MM1  0&amp;1&amp;0&amp;360 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 3_2 AC-MW1  0&amp;1&amp;0&amp;360 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 3_2 RAC  0&amp;1&amp;0&amp;360 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 3_3 AC-MM2.5  0&amp;1&amp;-2&amp;10 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3_3 AC-MM5  0&amp;1&amp;-2&amp;10 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 3_3 AC-MM7  0&amp;1&amp;-2&amp;10 " sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>AC-ME1</t>
+    <t>AC-Gly</t>
   </si>
   <si>
     <t>X</t>
@@ -34,7 +34,25 @@
     <t>Y</t>
   </si>
   <si>
+    <t>AC-KG</t>
+  </si>
+  <si>
+    <t>AC-LiG</t>
+  </si>
+  <si>
+    <t>AC-NaG</t>
+  </si>
+  <si>
+    <t>RAC</t>
+  </si>
+  <si>
+    <t>AC-ME1</t>
+  </si>
+  <si>
     <t>AC-MM1</t>
+  </si>
+  <si>
+    <t>AC-MW1</t>
   </si>
   <si>
     <t>AC-MM2.5</t>
@@ -44,24 +62,6 @@
   </si>
   <si>
     <t>AC-MM7</t>
-  </si>
-  <si>
-    <t>AC-MW1</t>
-  </si>
-  <si>
-    <t>RAC</t>
-  </si>
-  <si>
-    <t>AC-Gly</t>
-  </si>
-  <si>
-    <t>AC-KG</t>
-  </si>
-  <si>
-    <t>AC-LiG</t>
-  </si>
-  <si>
-    <t>AC-NaG</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-ME1 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC-Gly z wykresu 'Figure 3_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -197,12 +197,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC-ME1  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_1 AC-Gly  0&amp;1&amp;60&amp;360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC-ME1  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_1 AC-Gly  0&amp;1&amp;60&amp;360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -287,7 +287,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
-          <c:min val="0"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -420,6 +420,1262 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-MM2.5 z wykresu 'Figure 3_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 AC-MM2.5  0&amp;1&amp;-2&amp;10 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 AC-MM2.5  0&amp;1&amp;-2&amp;10 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-MM5 z wykresu 'Figure 3_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 AC-MM5  0&amp;1&amp;-2&amp;10 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 AC-MM5  0&amp;1&amp;-2&amp;10 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-MM7 z wykresu 'Figure 3_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 AC-MM7  0&amp;1&amp;-2&amp;10 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_3 AC-MM7  0&amp;1&amp;-2&amp;10 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC-KG z wykresu 'Figure 3_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 AC-KG  0&amp;1&amp;60&amp;360 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 3_1 AC-KG  0&amp;1&amp;60&amp;360 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="360"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -733,7 +1989,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1047,7 +2303,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1361,7 +2617,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1394,7 +2650,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-MM1 z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC-ME1 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1453,1268 +2709,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC-MM1  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 AC-ME1  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC-MM1  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="360"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-MM2.5 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MM2.5  0&amp;1&amp;-2&amp;10 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MM2.5  0&amp;1&amp;-2&amp;10 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-MM5 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MM5  0&amp;1&amp;-2&amp;10 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MM5  0&amp;1&amp;-2&amp;10 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-MM7 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MM7  0&amp;1&amp;-2&amp;10 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MM7  0&amp;1&amp;-2&amp;10 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-MW1 z wykresu 'Figure 3' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MW1  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 3 AC-MW1  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 AC-ME1  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2964,7 +2964,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki RAC z wykresu 'Figure 3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC-MM1 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3023,12 +3023,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 RAC  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 AC-MM1  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 RAC  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 AC-MM1  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3278,7 +3278,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-Gly z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC-MW1 z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3337,12 +3337,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 AC-Gly  0&amp;1&amp;60&amp;360 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 AC-MW1  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 AC-Gly  0&amp;1&amp;60&amp;360 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 AC-MW1  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3427,7 +3427,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
-          <c:min val="60"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3592,7 +3592,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-KG z wykresu 'Figure 3_1' </a:t>
+              <a:t>Izoterma adsorpcji probki RAC z wykresu 'Figure 3_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3651,12 +3651,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3_1 AC-KG  0&amp;1&amp;60&amp;360 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3_2 RAC  0&amp;1&amp;0&amp;360 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3_1 AC-KG  0&amp;1&amp;60&amp;360 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3_2 RAC  0&amp;1&amp;0&amp;360 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3741,7 +3741,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
-          <c:min val="60"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11322,7 +11322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11343,317 +11343,421 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9914</v>
+        <v>0.0805</v>
       </c>
       <c r="B3" s="0">
-        <v>113.8989</v>
+        <v>286.3708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.971</v>
+        <v>0.0735</v>
       </c>
       <c r="B4" s="0">
-        <v>110.5436</v>
+        <v>284.0209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9515</v>
+        <v>0.0673</v>
       </c>
       <c r="B5" s="0">
-        <v>109.5078</v>
+        <v>280.8877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9073</v>
+        <v>0.0593</v>
       </c>
       <c r="B6" s="0">
-        <v>108.2079</v>
+        <v>277.7546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8582</v>
+        <v>0.0522</v>
       </c>
       <c r="B7" s="0">
-        <v>107.1645</v>
+        <v>274.2298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.81</v>
+        <v>0.046</v>
       </c>
       <c r="B8" s="0">
-        <v>106.6367</v>
+        <v>269.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7598</v>
+        <v>0.0425</v>
       </c>
       <c r="B9" s="0">
-        <v>106.1084</v>
+        <v>266.0052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7092</v>
+        <v>0.0389</v>
       </c>
       <c r="B10" s="0">
-        <v>106.0953</v>
+        <v>262.8721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6589</v>
+        <v>0.0327</v>
       </c>
       <c r="B11" s="0">
-        <v>105.3093</v>
+        <v>258.9556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6087</v>
+        <v>0.0292</v>
       </c>
       <c r="B12" s="0">
-        <v>104.781</v>
+        <v>254.2559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5597</v>
+        <v>0.0257</v>
       </c>
       <c r="B13" s="0">
-        <v>104.5106</v>
+        <v>251.5144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5095</v>
+        <v>0.0221</v>
       </c>
       <c r="B14" s="0">
-        <v>103.7246</v>
+        <v>247.5979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4585</v>
+        <v>0.0186</v>
       </c>
       <c r="B15" s="0">
-        <v>103.4538</v>
+        <v>242.1149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4078</v>
+        <v>0.0159</v>
       </c>
       <c r="B16" s="0">
-        <v>102.9253</v>
+        <v>237.8068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3568</v>
+        <v>0.0142</v>
       </c>
       <c r="B17" s="0">
-        <v>102.3968</v>
+        <v>234.6736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3066</v>
+        <v>0.0106</v>
       </c>
       <c r="B18" s="0">
-        <v>101.0954</v>
+        <v>229.9739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.258</v>
+        <v>0.0097</v>
       </c>
       <c r="B19" s="0">
-        <v>100.5675</v>
+        <v>227.2324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2253</v>
+        <v>0.0071</v>
       </c>
       <c r="B20" s="0">
-        <v>99.7859</v>
+        <v>222.5326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1886</v>
+        <v>0.0062</v>
       </c>
       <c r="B21" s="0">
-        <v>98.7457</v>
+        <v>217.0496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1671</v>
+        <v>0.0053</v>
       </c>
       <c r="B22" s="0">
-        <v>97.9671</v>
+        <v>211.1749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.152</v>
+        <v>0.0035</v>
       </c>
       <c r="B23" s="0">
-        <v>97.1901</v>
+        <v>207.2585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1384</v>
+        <v>0.0009</v>
       </c>
       <c r="B24" s="0">
-        <v>96.4135</v>
+        <v>201.3838</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1121</v>
+        <v>0.0009</v>
       </c>
       <c r="B25" s="0">
-        <v>94.3452</v>
+        <v>196.2924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>92.2782</v>
+        <v>190.8094</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0">
-        <v>89.6966</v>
+        <v>186.893</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0579</v>
+        <v>-0.0009</v>
       </c>
       <c r="B28" s="0">
-        <v>86.8581</v>
+        <v>181.4099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0519</v>
+        <v>-0.0027</v>
       </c>
       <c r="B29" s="0">
-        <v>85.568</v>
+        <v>175.9269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0411</v>
+        <v>0.0885</v>
       </c>
       <c r="B30" s="0">
-        <v>81.9575</v>
+        <v>289.8956</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0316</v>
+        <v>0.0982</v>
       </c>
       <c r="B31" s="0">
-        <v>79.1204</v>
+        <v>291.4621</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0256</v>
+        <v>0.1088</v>
       </c>
       <c r="B32" s="0">
-        <v>76.7996</v>
+        <v>294.2037</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0208</v>
+        <v>0.1336</v>
       </c>
       <c r="B33" s="0">
-        <v>73.1907</v>
+        <v>299.6867</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0156</v>
+        <v>0.1504</v>
       </c>
       <c r="B34" s="0">
-        <v>70.6124</v>
+        <v>302.4282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0112</v>
+        <v>0.1619</v>
       </c>
       <c r="B35" s="0">
-        <v>67.0035</v>
+        <v>303.9948</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.006</v>
+        <v>0.1858</v>
       </c>
       <c r="B36" s="0">
-        <v>62.6214</v>
+        <v>306.3446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.0044</v>
+        <v>0.2212</v>
       </c>
       <c r="B37" s="0">
-        <v>56.9517</v>
+        <v>309.4778</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0016</v>
+        <v>0.2593</v>
       </c>
       <c r="B38" s="0">
-        <v>49.9932</v>
+        <v>311.436</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.0008</v>
+        <v>0.3106</v>
       </c>
       <c r="B39" s="0">
-        <v>42.0044</v>
+        <v>313.3943</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>-0.0004</v>
+        <v>0.3531</v>
       </c>
       <c r="B40" s="0">
-        <v>34.5309</v>
+        <v>314.5692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.0012</v>
+        <v>0.4035</v>
       </c>
       <c r="B41" s="0">
-        <v>23.7075</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>316.1358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.4558</v>
+      </c>
+      <c r="B42" s="0">
+        <v>316.9191</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.5062</v>
+      </c>
+      <c r="B43" s="0">
+        <v>318.094</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.5584</v>
+      </c>
+      <c r="B44" s="0">
+        <v>318.8773</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.6088</v>
+      </c>
+      <c r="B45" s="0">
+        <v>319.6606</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.6602</v>
+      </c>
+      <c r="B46" s="0">
+        <v>320.0522</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.7115</v>
+      </c>
+      <c r="B47" s="0">
+        <v>320.4439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.7602</v>
+      </c>
+      <c r="B48" s="0">
+        <v>321.2272</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.8088</v>
+      </c>
+      <c r="B49" s="0">
+        <v>321.6188</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.8584</v>
+      </c>
+      <c r="B50" s="0">
+        <v>322.4021</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.9053</v>
+      </c>
+      <c r="B51" s="0">
+        <v>323.1854</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.9549</v>
+      </c>
+      <c r="B52" s="0">
+        <v>325.1436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.9779</v>
+      </c>
+      <c r="B53" s="0">
+        <v>327.4935</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.9965</v>
+      </c>
+      <c r="B54" s="0">
+        <v>330.6266</v>
+      </c>
+    </row>
+    <row r="55"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11661,6 +11765,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9881</v>
+      </c>
+      <c r="B3" s="0">
+        <v>9.4506</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9741</v>
+      </c>
+      <c r="B4" s="0">
+        <v>6.2103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9548</v>
+      </c>
+      <c r="B5" s="0">
+        <v>5.0468</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9107</v>
+      </c>
+      <c r="B6" s="0">
+        <v>4.029</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8626</v>
+      </c>
+      <c r="B7" s="0">
+        <v>3.5688</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8128</v>
+      </c>
+      <c r="B8" s="0">
+        <v>3.246</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7635</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3.0039</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7133</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6643</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2.5684</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6142</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2.3829</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.564</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2.2459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.515</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2.1332</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4652</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2.0528</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4146</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1.9966</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3657</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1.9566</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3151</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1.9086</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2661</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1.9009</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2353</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1.8769</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1958</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1.853</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1761</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1.845</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1448</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1.8049</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1197</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1.7889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0839</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1.7003</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0543</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1.5551</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0313</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1.4179</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.007</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.9656</v>
+      </c>
+    </row>
+    <row r="29"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9889</v>
+      </c>
+      <c r="B3" s="0">
+        <v>6.7354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9712</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2.9457</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9523</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.6367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9091</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.4573</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8618</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.0375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8124</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-0.1803</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7626</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-0.2526</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7133</v>
+      </c>
+      <c r="B10" s="0">
+        <v>-0.2926</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6627</v>
+      </c>
+      <c r="B11" s="0">
+        <v>-0.2841</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6146</v>
+      </c>
+      <c r="B12" s="0">
+        <v>-0.2514</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5644</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.2025</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5142</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.1537</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4652</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.0644</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4138</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3645</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.0819</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3143</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.1631</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2633</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.2524</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2345</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.3011</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1942</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.3823</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1736</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.4228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1444</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.4554</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1193</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.4718</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0991</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.5042</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0852</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.5286</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0703</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.5368</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0531</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.5289</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0337</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.5048</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0103</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.4565</v>
+      </c>
+    </row>
+    <row r="31"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9963</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.8707</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.979</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.1008</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9613</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.6179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9136</v>
+      </c>
+      <c r="B6" s="0">
+        <v>-1.0215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8647</v>
+      </c>
+      <c r="B7" s="0">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8149</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-1.1015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7655</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-1.0527</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7149</v>
+      </c>
+      <c r="B10" s="0">
+        <v>-1.0199</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6656</v>
+      </c>
+      <c r="B11" s="0">
+        <v>-0.9468</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6162</v>
+      </c>
+      <c r="B12" s="0">
+        <v>-0.8494</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5668</v>
+      </c>
+      <c r="B13" s="0">
+        <v>-0.7197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5154</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.6223</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4652</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.5573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4163</v>
+      </c>
+      <c r="B16" s="0">
+        <v>-0.4599</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3661</v>
+      </c>
+      <c r="B17" s="0">
+        <v>-0.3787</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3163</v>
+      </c>
+      <c r="B18" s="0">
+        <v>-0.2652</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2657</v>
+      </c>
+      <c r="B19" s="0">
+        <v>-0.1597</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2357</v>
+      </c>
+      <c r="B20" s="0">
+        <v>-0.0787</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.195</v>
+      </c>
+      <c r="B21" s="0">
+        <v>-0.0137</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1765</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.146</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.0998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1205</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.1404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0852</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0564</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.2056</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0358</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.1896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0128</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="29"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9982</v>
+      </c>
+      <c r="B3" s="0">
+        <v>220.1828</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9752</v>
+      </c>
+      <c r="B4" s="0">
+        <v>218.6162</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9522</v>
+      </c>
+      <c r="B5" s="0">
+        <v>217.8329</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9088</v>
+      </c>
+      <c r="B6" s="0">
+        <v>215.8747</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8602</v>
+      </c>
+      <c r="B7" s="0">
+        <v>215.483</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8115</v>
+      </c>
+      <c r="B8" s="0">
+        <v>215.483</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7628</v>
+      </c>
+      <c r="B9" s="0">
+        <v>215.0914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7124</v>
+      </c>
+      <c r="B10" s="0">
+        <v>214.3081</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6619</v>
+      </c>
+      <c r="B11" s="0">
+        <v>213.9164</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6115</v>
+      </c>
+      <c r="B12" s="0">
+        <v>213.9164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5619</v>
+      </c>
+      <c r="B13" s="0">
+        <v>213.9164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5115</v>
+      </c>
+      <c r="B14" s="0">
+        <v>213.5248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4602</v>
+      </c>
+      <c r="B15" s="0">
+        <v>213.5248</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4097</v>
+      </c>
+      <c r="B16" s="0">
+        <v>213.1332</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3584</v>
+      </c>
+      <c r="B17" s="0">
+        <v>212.7415</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3053</v>
+      </c>
+      <c r="B18" s="0">
+        <v>212.3499</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2584</v>
+      </c>
+      <c r="B19" s="0">
+        <v>211.5666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2257</v>
+      </c>
+      <c r="B20" s="0">
+        <v>211.1749</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1876</v>
+      </c>
+      <c r="B21" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1681</v>
+      </c>
+      <c r="B22" s="0">
+        <v>208.4334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1496</v>
+      </c>
+      <c r="B23" s="0">
+        <v>208.0418</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1327</v>
+      </c>
+      <c r="B24" s="0">
+        <v>207.2585</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1106</v>
+      </c>
+      <c r="B25" s="0">
+        <v>205.6919</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.0903</v>
+      </c>
+      <c r="B26" s="0">
+        <v>204.1253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0717</v>
+      </c>
+      <c r="B27" s="0">
+        <v>199.8172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0575</v>
+      </c>
+      <c r="B28" s="0">
+        <v>197.0757</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0469</v>
+      </c>
+      <c r="B29" s="0">
+        <v>193.1593</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0416</v>
+      </c>
+      <c r="B30" s="0">
+        <v>191.201</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0327</v>
+      </c>
+      <c r="B31" s="0">
+        <v>187.6762</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0274</v>
+      </c>
+      <c r="B32" s="0">
+        <v>183.7598</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0212</v>
+      </c>
+      <c r="B33" s="0">
+        <v>179.8433</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0177</v>
+      </c>
+      <c r="B34" s="0">
+        <v>175.5352</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0159</v>
+      </c>
+      <c r="B35" s="0">
+        <v>171.6188</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0133</v>
+      </c>
+      <c r="B36" s="0">
+        <v>166.5274</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0115</v>
+      </c>
+      <c r="B37" s="0">
+        <v>161.0444</v>
+      </c>
+    </row>
+    <row r="38"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -11670,7 +12806,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -11864,7 +13000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B52"/>
   <sheetViews>
@@ -11874,7 +13010,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -12284,7 +13420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -12294,7 +13430,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -12768,7 +13904,347 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9914</v>
+      </c>
+      <c r="B3" s="0">
+        <v>113.8989</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.971</v>
+      </c>
+      <c r="B4" s="0">
+        <v>110.5436</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9515</v>
+      </c>
+      <c r="B5" s="0">
+        <v>109.5078</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9073</v>
+      </c>
+      <c r="B6" s="0">
+        <v>108.2079</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8582</v>
+      </c>
+      <c r="B7" s="0">
+        <v>107.1645</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.81</v>
+      </c>
+      <c r="B8" s="0">
+        <v>106.6367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7598</v>
+      </c>
+      <c r="B9" s="0">
+        <v>106.1084</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7092</v>
+      </c>
+      <c r="B10" s="0">
+        <v>106.0953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6589</v>
+      </c>
+      <c r="B11" s="0">
+        <v>105.3093</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6087</v>
+      </c>
+      <c r="B12" s="0">
+        <v>104.781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5597</v>
+      </c>
+      <c r="B13" s="0">
+        <v>104.5106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5095</v>
+      </c>
+      <c r="B14" s="0">
+        <v>103.7246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4585</v>
+      </c>
+      <c r="B15" s="0">
+        <v>103.4538</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4078</v>
+      </c>
+      <c r="B16" s="0">
+        <v>102.9253</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3568</v>
+      </c>
+      <c r="B17" s="0">
+        <v>102.3968</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3066</v>
+      </c>
+      <c r="B18" s="0">
+        <v>101.0954</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.258</v>
+      </c>
+      <c r="B19" s="0">
+        <v>100.5675</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2253</v>
+      </c>
+      <c r="B20" s="0">
+        <v>99.7859</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.1886</v>
+      </c>
+      <c r="B21" s="0">
+        <v>98.7457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.1671</v>
+      </c>
+      <c r="B22" s="0">
+        <v>97.9671</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.152</v>
+      </c>
+      <c r="B23" s="0">
+        <v>97.1901</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1384</v>
+      </c>
+      <c r="B24" s="0">
+        <v>96.4135</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1121</v>
+      </c>
+      <c r="B25" s="0">
+        <v>94.3452</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.091</v>
+      </c>
+      <c r="B26" s="0">
+        <v>92.2782</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.073</v>
+      </c>
+      <c r="B27" s="0">
+        <v>89.6966</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0579</v>
+      </c>
+      <c r="B28" s="0">
+        <v>86.8581</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0519</v>
+      </c>
+      <c r="B29" s="0">
+        <v>85.568</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.0411</v>
+      </c>
+      <c r="B30" s="0">
+        <v>81.9575</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0316</v>
+      </c>
+      <c r="B31" s="0">
+        <v>79.1204</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0256</v>
+      </c>
+      <c r="B32" s="0">
+        <v>76.7996</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0208</v>
+      </c>
+      <c r="B33" s="0">
+        <v>73.1907</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0156</v>
+      </c>
+      <c r="B34" s="0">
+        <v>70.6124</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0112</v>
+      </c>
+      <c r="B35" s="0">
+        <v>67.0035</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.006</v>
+      </c>
+      <c r="B36" s="0">
+        <v>62.6214</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B37" s="0">
+        <v>56.9517</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0016</v>
+      </c>
+      <c r="B38" s="0">
+        <v>49.9932</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0008</v>
+      </c>
+      <c r="B39" s="0">
+        <v>42.0044</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>-0.0004</v>
+      </c>
+      <c r="B40" s="0">
+        <v>34.5309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>-0.0012</v>
+      </c>
+      <c r="B41" s="0">
+        <v>23.7075</v>
+      </c>
+    </row>
+    <row r="42"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -12778,7 +14254,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -13124,731 +14600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9881</v>
-      </c>
-      <c r="B3" s="0">
-        <v>9.4506</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9741</v>
-      </c>
-      <c r="B4" s="0">
-        <v>6.2103</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9548</v>
-      </c>
-      <c r="B5" s="0">
-        <v>5.0468</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9107</v>
-      </c>
-      <c r="B6" s="0">
-        <v>4.029</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8626</v>
-      </c>
-      <c r="B7" s="0">
-        <v>3.5688</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8128</v>
-      </c>
-      <c r="B8" s="0">
-        <v>3.246</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7635</v>
-      </c>
-      <c r="B9" s="0">
-        <v>3.0039</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7133</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6643</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2.5684</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.6142</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2.3829</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.564</v>
-      </c>
-      <c r="B13" s="0">
-        <v>2.2459</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.515</v>
-      </c>
-      <c r="B14" s="0">
-        <v>2.1332</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4652</v>
-      </c>
-      <c r="B15" s="0">
-        <v>2.0528</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4146</v>
-      </c>
-      <c r="B16" s="0">
-        <v>1.9966</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3657</v>
-      </c>
-      <c r="B17" s="0">
-        <v>1.9566</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3151</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1.9086</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2661</v>
-      </c>
-      <c r="B19" s="0">
-        <v>1.9009</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2353</v>
-      </c>
-      <c r="B20" s="0">
-        <v>1.8769</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.1958</v>
-      </c>
-      <c r="B21" s="0">
-        <v>1.853</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1761</v>
-      </c>
-      <c r="B22" s="0">
-        <v>1.845</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1448</v>
-      </c>
-      <c r="B23" s="0">
-        <v>1.8049</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1197</v>
-      </c>
-      <c r="B24" s="0">
-        <v>1.7889</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0839</v>
-      </c>
-      <c r="B25" s="0">
-        <v>1.7003</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0543</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1.5551</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0313</v>
-      </c>
-      <c r="B27" s="0">
-        <v>1.4179</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.007</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.9656</v>
-      </c>
-    </row>
-    <row r="29"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9889</v>
-      </c>
-      <c r="B3" s="0">
-        <v>6.7354</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9712</v>
-      </c>
-      <c r="B4" s="0">
-        <v>2.9457</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9523</v>
-      </c>
-      <c r="B5" s="0">
-        <v>1.6367</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9091</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.4573</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8618</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.0375</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8124</v>
-      </c>
-      <c r="B8" s="0">
-        <v>-0.1803</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7626</v>
-      </c>
-      <c r="B9" s="0">
-        <v>-0.2526</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7133</v>
-      </c>
-      <c r="B10" s="0">
-        <v>-0.2926</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6627</v>
-      </c>
-      <c r="B11" s="0">
-        <v>-0.2841</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.6146</v>
-      </c>
-      <c r="B12" s="0">
-        <v>-0.2514</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5644</v>
-      </c>
-      <c r="B13" s="0">
-        <v>-0.2025</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.5142</v>
-      </c>
-      <c r="B14" s="0">
-        <v>-0.1537</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4652</v>
-      </c>
-      <c r="B15" s="0">
-        <v>-0.0644</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4138</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.0007</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3645</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0.0819</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3143</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.1631</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2633</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.2524</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2345</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.3011</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.1942</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0.3823</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1736</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.4228</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1444</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.4554</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1193</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.4718</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0991</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.5042</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0852</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.5286</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0703</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.5368</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0531</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.5289</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0337</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.5048</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0103</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.4565</v>
-      </c>
-    </row>
-    <row r="31"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9963</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1.8707</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.979</v>
-      </c>
-      <c r="B4" s="0">
-        <v>-0.1008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9613</v>
-      </c>
-      <c r="B5" s="0">
-        <v>-0.6179</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9136</v>
-      </c>
-      <c r="B6" s="0">
-        <v>-1.0215</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8647</v>
-      </c>
-      <c r="B7" s="0">
-        <v>-1.11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8149</v>
-      </c>
-      <c r="B8" s="0">
-        <v>-1.1015</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7655</v>
-      </c>
-      <c r="B9" s="0">
-        <v>-1.0527</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7149</v>
-      </c>
-      <c r="B10" s="0">
-        <v>-1.0199</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6656</v>
-      </c>
-      <c r="B11" s="0">
-        <v>-0.9468</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.6162</v>
-      </c>
-      <c r="B12" s="0">
-        <v>-0.8494</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5668</v>
-      </c>
-      <c r="B13" s="0">
-        <v>-0.7197</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.5154</v>
-      </c>
-      <c r="B14" s="0">
-        <v>-0.6223</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4652</v>
-      </c>
-      <c r="B15" s="0">
-        <v>-0.5573</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4163</v>
-      </c>
-      <c r="B16" s="0">
-        <v>-0.4599</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3661</v>
-      </c>
-      <c r="B17" s="0">
-        <v>-0.3787</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3163</v>
-      </c>
-      <c r="B18" s="0">
-        <v>-0.2652</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2657</v>
-      </c>
-      <c r="B19" s="0">
-        <v>-0.1597</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2357</v>
-      </c>
-      <c r="B20" s="0">
-        <v>-0.0787</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.195</v>
-      </c>
-      <c r="B21" s="0">
-        <v>-0.0137</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1765</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.146</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.0998</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1205</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.1404</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0852</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.173</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0564</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.2056</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0358</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.1896</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0128</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.1656</v>
-      </c>
-    </row>
-    <row r="29"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B41"/>
   <sheetViews>
@@ -13858,7 +14610,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -14180,7 +14932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B61"/>
   <sheetViews>
@@ -14190,7 +14942,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -14670,756 +15422,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0805</v>
-      </c>
-      <c r="B3" s="0">
-        <v>286.3708</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0735</v>
-      </c>
-      <c r="B4" s="0">
-        <v>284.0209</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0673</v>
-      </c>
-      <c r="B5" s="0">
-        <v>280.8877</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0593</v>
-      </c>
-      <c r="B6" s="0">
-        <v>277.7546</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0522</v>
-      </c>
-      <c r="B7" s="0">
-        <v>274.2298</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.046</v>
-      </c>
-      <c r="B8" s="0">
-        <v>269.53</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0425</v>
-      </c>
-      <c r="B9" s="0">
-        <v>266.0052</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0389</v>
-      </c>
-      <c r="B10" s="0">
-        <v>262.8721</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0327</v>
-      </c>
-      <c r="B11" s="0">
-        <v>258.9556</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0292</v>
-      </c>
-      <c r="B12" s="0">
-        <v>254.2559</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0257</v>
-      </c>
-      <c r="B13" s="0">
-        <v>251.5144</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0221</v>
-      </c>
-      <c r="B14" s="0">
-        <v>247.5979</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0186</v>
-      </c>
-      <c r="B15" s="0">
-        <v>242.1149</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0159</v>
-      </c>
-      <c r="B16" s="0">
-        <v>237.8068</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0142</v>
-      </c>
-      <c r="B17" s="0">
-        <v>234.6736</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0106</v>
-      </c>
-      <c r="B18" s="0">
-        <v>229.9739</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0097</v>
-      </c>
-      <c r="B19" s="0">
-        <v>227.2324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B20" s="0">
-        <v>222.5326</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0062</v>
-      </c>
-      <c r="B21" s="0">
-        <v>217.0496</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0053</v>
-      </c>
-      <c r="B22" s="0">
-        <v>211.1749</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0035</v>
-      </c>
-      <c r="B23" s="0">
-        <v>207.2585</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B24" s="0">
-        <v>201.3838</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B25" s="0">
-        <v>196.2924</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0</v>
-      </c>
-      <c r="B26" s="0">
-        <v>190.8094</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0</v>
-      </c>
-      <c r="B27" s="0">
-        <v>186.893</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>-0.0009</v>
-      </c>
-      <c r="B28" s="0">
-        <v>181.4099</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>-0.0027</v>
-      </c>
-      <c r="B29" s="0">
-        <v>175.9269</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0885</v>
-      </c>
-      <c r="B30" s="0">
-        <v>289.8956</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0982</v>
-      </c>
-      <c r="B31" s="0">
-        <v>291.4621</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.1088</v>
-      </c>
-      <c r="B32" s="0">
-        <v>294.2037</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.1336</v>
-      </c>
-      <c r="B33" s="0">
-        <v>299.6867</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.1504</v>
-      </c>
-      <c r="B34" s="0">
-        <v>302.4282</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.1619</v>
-      </c>
-      <c r="B35" s="0">
-        <v>303.9948</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.1858</v>
-      </c>
-      <c r="B36" s="0">
-        <v>306.3446</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.2212</v>
-      </c>
-      <c r="B37" s="0">
-        <v>309.4778</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.2593</v>
-      </c>
-      <c r="B38" s="0">
-        <v>311.436</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.3106</v>
-      </c>
-      <c r="B39" s="0">
-        <v>313.3943</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.3531</v>
-      </c>
-      <c r="B40" s="0">
-        <v>314.5692</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.4035</v>
-      </c>
-      <c r="B41" s="0">
-        <v>316.1358</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.4558</v>
-      </c>
-      <c r="B42" s="0">
-        <v>316.9191</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.5062</v>
-      </c>
-      <c r="B43" s="0">
-        <v>318.094</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.5584</v>
-      </c>
-      <c r="B44" s="0">
-        <v>318.8773</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.6088</v>
-      </c>
-      <c r="B45" s="0">
-        <v>319.6606</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.6602</v>
-      </c>
-      <c r="B46" s="0">
-        <v>320.0522</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.7115</v>
-      </c>
-      <c r="B47" s="0">
-        <v>320.4439</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.7602</v>
-      </c>
-      <c r="B48" s="0">
-        <v>321.2272</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8088</v>
-      </c>
-      <c r="B49" s="0">
-        <v>321.6188</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.8584</v>
-      </c>
-      <c r="B50" s="0">
-        <v>322.4021</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9053</v>
-      </c>
-      <c r="B51" s="0">
-        <v>323.1854</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9549</v>
-      </c>
-      <c r="B52" s="0">
-        <v>325.1436</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9779</v>
-      </c>
-      <c r="B53" s="0">
-        <v>327.4935</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9965</v>
-      </c>
-      <c r="B54" s="0">
-        <v>330.6266</v>
-      </c>
-    </row>
-    <row r="55"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9982</v>
-      </c>
-      <c r="B3" s="0">
-        <v>220.1828</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9752</v>
-      </c>
-      <c r="B4" s="0">
-        <v>218.6162</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.9522</v>
-      </c>
-      <c r="B5" s="0">
-        <v>217.8329</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.9088</v>
-      </c>
-      <c r="B6" s="0">
-        <v>215.8747</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8602</v>
-      </c>
-      <c r="B7" s="0">
-        <v>215.483</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8115</v>
-      </c>
-      <c r="B8" s="0">
-        <v>215.483</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7628</v>
-      </c>
-      <c r="B9" s="0">
-        <v>215.0914</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7124</v>
-      </c>
-      <c r="B10" s="0">
-        <v>214.3081</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.6619</v>
-      </c>
-      <c r="B11" s="0">
-        <v>213.9164</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.6115</v>
-      </c>
-      <c r="B12" s="0">
-        <v>213.9164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.5619</v>
-      </c>
-      <c r="B13" s="0">
-        <v>213.9164</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.5115</v>
-      </c>
-      <c r="B14" s="0">
-        <v>213.5248</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4602</v>
-      </c>
-      <c r="B15" s="0">
-        <v>213.5248</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4097</v>
-      </c>
-      <c r="B16" s="0">
-        <v>213.1332</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3584</v>
-      </c>
-      <c r="B17" s="0">
-        <v>212.7415</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3053</v>
-      </c>
-      <c r="B18" s="0">
-        <v>212.3499</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.2584</v>
-      </c>
-      <c r="B19" s="0">
-        <v>211.5666</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2257</v>
-      </c>
-      <c r="B20" s="0">
-        <v>211.1749</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.1876</v>
-      </c>
-      <c r="B21" s="0">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.1681</v>
-      </c>
-      <c r="B22" s="0">
-        <v>208.4334</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.1496</v>
-      </c>
-      <c r="B23" s="0">
-        <v>208.0418</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1327</v>
-      </c>
-      <c r="B24" s="0">
-        <v>207.2585</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1106</v>
-      </c>
-      <c r="B25" s="0">
-        <v>205.6919</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0903</v>
-      </c>
-      <c r="B26" s="0">
-        <v>204.1253</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0717</v>
-      </c>
-      <c r="B27" s="0">
-        <v>199.8172</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0575</v>
-      </c>
-      <c r="B28" s="0">
-        <v>197.0757</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0469</v>
-      </c>
-      <c r="B29" s="0">
-        <v>193.1593</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0416</v>
-      </c>
-      <c r="B30" s="0">
-        <v>191.201</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0327</v>
-      </c>
-      <c r="B31" s="0">
-        <v>187.6762</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0274</v>
-      </c>
-      <c r="B32" s="0">
-        <v>183.7598</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0212</v>
-      </c>
-      <c r="B33" s="0">
-        <v>179.8433</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0177</v>
-      </c>
-      <c r="B34" s="0">
-        <v>175.5352</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0159</v>
-      </c>
-      <c r="B35" s="0">
-        <v>171.6188</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0133</v>
-      </c>
-      <c r="B36" s="0">
-        <v>166.5274</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0115</v>
-      </c>
-      <c r="B37" s="0">
-        <v>161.0444</v>
-      </c>
-    </row>
-    <row r="38"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>